--- a/LubanConfig/Datas/__tables__.xlsx
+++ b/LubanConfig/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\luban_examples-main\LuckConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB48399-678F-49D3-AC91-920561AABAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D594A594-D7D1-4C1F-B37B-78D2F60EACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -115,15 +115,39 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Symbol</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>symbol.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TbSymbol</t>
+    <t>TbBaseConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>base.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbCharacter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbFlag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlagConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>character.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -600,21 +624,49 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LubanConfig/Datas/__tables__.xlsx
+++ b/LubanConfig/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D594A594-D7D1-4C1F-B37B-78D2F60EACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EF35BB-2B13-4666-9655-8EE9A6662DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,23 +131,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TbFlag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CharacterConfig</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FlagConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>character.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbEffect</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +507,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,27 +641,27 @@
         <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
